--- a/Orden de las columnas.xlsx
+++ b/Orden de las columnas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\shared\2020\FALABELLA-SEGUROS\desarrollo PYTHON\archivosCSV\cargaArchivos-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657F388A-3263-4B8A-961A-CED2C3F69899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796441E1-23C5-48E9-90B4-601FBA3D8462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{1515242C-3C6C-402A-BDB1-ADB9EC889699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{1515242C-3C6C-402A-BDB1-ADB9EC889699}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>column_name</t>
   </si>
@@ -147,13 +148,91 @@
   </si>
   <si>
     <t>ORDEN</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Columna Excel</t>
+  </si>
+  <si>
+    <t>IdFasecolda</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>IdControl</t>
+  </si>
+  <si>
+    <t>DatosAuto</t>
+  </si>
+  <si>
+    <t>FechaInsert</t>
+  </si>
+  <si>
+    <t>Sysdate</t>
+  </si>
+  <si>
+    <t>EstadoProceso</t>
+  </si>
+  <si>
+    <t>Por Defecto N</t>
+  </si>
+  <si>
+    <t>DescVehiculo</t>
+  </si>
+  <si>
+    <t>Referencia2 +' '+ Referencia3</t>
+  </si>
+  <si>
+    <t>DesVehiculoTipo</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>CodVehiculoTipo</t>
+  </si>
+  <si>
+    <t>DesVehiculoMarca</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>CodVehiculoMarca</t>
+  </si>
+  <si>
+    <t>CodVehiculoExterno</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>CodHomologado</t>
+  </si>
+  <si>
+    <t>Homologocodigo</t>
+  </si>
+  <si>
+    <t>DesGrupoModelo</t>
+  </si>
+  <si>
+    <t>Referencia1</t>
+  </si>
+  <si>
+    <t>CodGruproModelo</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +255,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +295,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,15 +325,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588E168-9214-4A5F-83DA-DF1262FEC1BA}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,4 +1128,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7C4844-2253-4838-8474-93871D4E3186}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>